--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1923C86A-0CEF-4820-8F7D-2828B7D048FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB21B00-5D37-4158-B1E1-06818ECD2289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1770" windowWidth="23280" windowHeight="11625" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2844" yWindow="3204" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -768,38 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100,conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], conditionId:1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -841,6 +809,38 @@
   </si>
   <si>
     <t>增加了反击伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1045,9 +1045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1369,27 +1366,27 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="118.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1403,7 +1400,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +1412,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="11">
         <v>2</v>
@@ -1506,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1526,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1566,7 +1563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>7</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>9</v>
       </c>
@@ -1646,7 +1643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1706,7 +1703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>15</v>
       </c>
@@ -1766,7 +1763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>17</v>
       </c>
@@ -1806,7 +1803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>18</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -1866,7 +1863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>21</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>22</v>
       </c>
@@ -1906,7 +1903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>23</v>
       </c>
@@ -1926,7 +1923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>24</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>25</v>
       </c>
@@ -1966,7 +1963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>26</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>27</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>28</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>29</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>30</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>31</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>32</v>
       </c>
@@ -2106,7 +2103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>33</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>34</v>
       </c>
@@ -2146,352 +2143,352 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="18">
+    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="17">
         <v>35</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="18">
-        <v>2</v>
-      </c>
-      <c r="F39" s="18">
-        <v>2</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="E39" s="17">
+        <v>2</v>
+      </c>
+      <c r="F39" s="17">
+        <v>2</v>
+      </c>
+      <c r="G39" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="17">
+        <v>36</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2</v>
+      </c>
+      <c r="F40" s="17">
+        <v>2</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17">
+        <v>37</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="17">
+        <v>2</v>
+      </c>
+      <c r="F41" s="17">
+        <v>2</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17">
+        <v>38</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="17">
+        <v>2</v>
+      </c>
+      <c r="F42" s="17">
+        <v>2</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17">
+        <v>39</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="17">
+        <v>2</v>
+      </c>
+      <c r="F43" s="17">
+        <v>2</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="17">
+        <v>40</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3</v>
+      </c>
+      <c r="F44" s="17">
+        <v>2</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="17">
+        <v>41</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="17">
+        <v>4</v>
+      </c>
+      <c r="F45" s="17">
+        <v>2</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="17">
+        <v>42</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="17">
+        <v>3</v>
+      </c>
+      <c r="F46" s="17">
+        <v>2</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="17">
+        <v>43</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="17">
+        <v>3</v>
+      </c>
+      <c r="F47" s="17">
+        <v>2</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="18">
-        <v>36</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="18">
-        <v>2</v>
-      </c>
-      <c r="F40" s="18">
-        <v>2</v>
-      </c>
-      <c r="G40" s="18" t="s">
+    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="17">
+        <v>44</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="17">
+        <v>3</v>
+      </c>
+      <c r="F48" s="17">
+        <v>2</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="18">
-        <v>37</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="18">
-        <v>2</v>
-      </c>
-      <c r="F41" s="18">
-        <v>2</v>
-      </c>
-      <c r="G41" s="18" t="s">
+    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17">
+        <v>45</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="17">
+        <v>3</v>
+      </c>
+      <c r="F49" s="17">
+        <v>2</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H49" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="18">
-        <v>38</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="18">
-        <v>2</v>
-      </c>
-      <c r="F42" s="18">
-        <v>2</v>
-      </c>
-      <c r="G42" s="18" t="s">
+    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="17">
+        <v>46</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="17">
+        <v>3</v>
+      </c>
+      <c r="F50" s="17">
+        <v>2</v>
+      </c>
+      <c r="G50" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H50" s="18" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="18">
-        <v>39</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="18">
-        <v>2</v>
-      </c>
-      <c r="F43" s="18">
-        <v>2</v>
-      </c>
-      <c r="G43" s="18" t="s">
+    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="17">
+        <v>47</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="17">
+        <v>3</v>
+      </c>
+      <c r="F51" s="17">
+        <v>2</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H51" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="18">
-        <v>40</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="18">
-        <v>3</v>
-      </c>
-      <c r="F44" s="18">
-        <v>2</v>
-      </c>
-      <c r="G44" s="18" t="s">
+    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="17">
+        <v>48</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E52" s="17">
+        <v>3</v>
+      </c>
+      <c r="F52" s="17">
+        <v>2</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="18">
-        <v>41</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="18">
+      <c r="H52" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="17">
+        <v>49</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" s="17">
         <v>4</v>
       </c>
-      <c r="F45" s="18">
-        <v>2</v>
-      </c>
-      <c r="G45" s="18" t="s">
+      <c r="F53" s="17">
+        <v>2</v>
+      </c>
+      <c r="G53" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="18">
-        <v>42</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="18">
-        <v>3</v>
-      </c>
-      <c r="F46" s="18">
-        <v>2</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="18">
-        <v>43</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="18">
-        <v>3</v>
-      </c>
-      <c r="F47" s="18">
-        <v>2</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="18">
-        <v>44</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="18">
-        <v>3</v>
-      </c>
-      <c r="F48" s="18">
-        <v>2</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="18">
-        <v>45</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49" s="18">
-        <v>3</v>
-      </c>
-      <c r="F49" s="18">
-        <v>2</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="18">
-        <v>46</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="18">
-        <v>3</v>
-      </c>
-      <c r="F50" s="18">
-        <v>2</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="18">
-        <v>47</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="18">
-        <v>3</v>
-      </c>
-      <c r="F51" s="18">
-        <v>2</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="18">
-        <v>48</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="18">
-        <v>3</v>
-      </c>
-      <c r="F52" s="18">
-        <v>2</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="18">
-        <v>49</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="18">
-        <v>4</v>
-      </c>
-      <c r="F53" s="18">
-        <v>2</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>50</v>
       </c>
@@ -2511,7 +2508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -2553,7 +2550,7 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>53</v>
       </c>
@@ -2573,7 +2570,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>54</v>
       </c>
@@ -2593,7 +2590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>55</v>
       </c>
@@ -2613,7 +2610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>56</v>
       </c>
@@ -2633,7 +2630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>57</v>
       </c>
@@ -2653,7 +2650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>58</v>
       </c>
@@ -2673,7 +2670,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>59</v>
       </c>
@@ -2693,7 +2690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>60</v>
       </c>
@@ -2713,7 +2710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>61</v>
       </c>
@@ -2733,33 +2730,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="18">
+    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="17">
         <v>62</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="17">
         <v>4</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="17">
         <v>4</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="I66" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I66" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>63</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>64</v>
       </c>
@@ -2799,7 +2796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>65</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>66</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>67</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>68</v>
       </c>
@@ -2879,7 +2876,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>69</v>
       </c>
@@ -2899,7 +2896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>70</v>
       </c>
@@ -2919,7 +2916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>71</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>72</v>
       </c>
@@ -2959,7 +2956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>73</v>
       </c>
@@ -2979,7 +2976,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>74</v>
       </c>
@@ -2999,7 +2996,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>75</v>
       </c>
@@ -3019,7 +3016,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -3040,7 +3037,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -3061,7 +3058,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -3082,7 +3079,7 @@
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -3103,122 +3100,122 @@
       </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="18">
+    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="17">
         <v>80</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E84" s="18">
-        <v>2</v>
-      </c>
-      <c r="F84" s="19" t="s">
+      <c r="E84" s="17">
+        <v>2</v>
+      </c>
+      <c r="F84" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="18">
+      <c r="H84" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="17">
         <v>81</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E85" s="18">
-        <v>2</v>
-      </c>
-      <c r="F85" s="19" t="s">
+      <c r="E85" s="17">
+        <v>2</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H85" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="18">
+      <c r="H85" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="17">
         <v>82</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E86" s="18">
-        <v>2</v>
-      </c>
-      <c r="F86" s="19" t="s">
+      <c r="E86" s="17">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="18">
+      <c r="H86" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="17">
         <v>83</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="E87" s="18">
-        <v>2</v>
-      </c>
-      <c r="F87" s="19" t="s">
+      <c r="E87" s="17">
+        <v>2</v>
+      </c>
+      <c r="F87" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="19" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="18">
+      <c r="H87" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="17">
         <v>84</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E88" s="18">
-        <v>2</v>
-      </c>
-      <c r="F88" s="19" t="s">
+      <c r="E88" s="17">
+        <v>2</v>
+      </c>
+      <c r="F88" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H88" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -3239,7 +3236,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -3260,7 +3257,7 @@
       </c>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -3281,7 +3278,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -3300,9 +3297,9 @@
       <c r="G92" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H92" s="17"/>
-    </row>
-    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -3323,7 +3320,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -3344,7 +3341,7 @@
       </c>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -3365,7 +3362,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -3386,7 +3383,7 @@
       </c>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -3407,7 +3404,7 @@
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -3428,7 +3425,7 @@
       </c>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -3449,7 +3446,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -3470,7 +3467,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -3491,7 +3488,7 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -3512,7 +3509,7 @@
       </c>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -3533,7 +3530,7 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9">
         <v>100</v>
       </c>

--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB21B00-5D37-4158-B1E1-06818ECD2289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C48AA-26A4-4BD4-A805-B9414A824928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="3204" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="247">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,35 +812,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], condition:{class:"ConditionAnd",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,27 +1370,27 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1400,7 +1404,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1459,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="11">
         <v>2</v>
@@ -1503,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <v>7</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <v>9</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1703,7 +1707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <v>15</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
         <v>17</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
         <v>18</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -1863,7 +1867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
         <v>21</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <v>22</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
         <v>23</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
         <v>24</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
         <v>25</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
         <v>26</v>
       </c>
@@ -1983,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
         <v>27</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
         <v>28</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
         <v>29</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
         <v>30</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
         <v>31</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
         <v>32</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
         <v>33</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
         <v>34</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>35</v>
       </c>
@@ -2163,10 +2167,10 @@
         <v>35</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>36</v>
       </c>
@@ -2186,10 +2190,10 @@
         <v>35</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>37</v>
       </c>
@@ -2209,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>38</v>
       </c>
@@ -2232,10 +2236,10 @@
         <v>35</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>39</v>
       </c>
@@ -2255,10 +2259,10 @@
         <v>35</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>40</v>
       </c>
@@ -2278,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>41</v>
       </c>
@@ -2301,10 +2305,10 @@
         <v>35</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42</v>
       </c>
@@ -2324,10 +2328,10 @@
         <v>35</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>43</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>44</v>
       </c>
@@ -2373,7 +2377,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>45</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>46</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>47</v>
       </c>
@@ -2442,7 +2446,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>48</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>49</v>
       </c>
@@ -2488,7 +2492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
         <v>50</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -2529,7 +2533,7 @@
       </c>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -2550,7 +2554,7 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
         <v>53</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="11">
         <v>54</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="11">
         <v>55</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="11">
         <v>56</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="11">
         <v>57</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="11">
         <v>58</v>
       </c>
@@ -2670,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="11">
         <v>59</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>60</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="11">
         <v>61</v>
       </c>
@@ -2730,7 +2734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="17">
         <v>62</v>
       </c>
@@ -2756,7 +2760,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11">
         <v>63</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11">
         <v>64</v>
       </c>
@@ -2796,7 +2800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11">
         <v>65</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="11">
         <v>66</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
         <v>67</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="11">
         <v>68</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="11">
         <v>69</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
         <v>70</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="11">
         <v>71</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
         <v>72</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
         <v>73</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
         <v>74</v>
       </c>
@@ -2996,7 +3000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
         <v>75</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -3037,7 +3041,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -3058,7 +3062,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -3079,7 +3083,7 @@
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -3100,7 +3104,7 @@
       </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="17">
         <v>80</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="17">
         <v>81</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="17">
         <v>82</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="17">
         <v>83</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="17">
         <v>84</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -3236,7 +3240,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -3257,7 +3261,7 @@
       </c>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -3278,7 +3282,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -3299,7 +3303,7 @@
       </c>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -3320,7 +3324,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -3341,7 +3345,7 @@
       </c>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -3362,7 +3366,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -3383,7 +3387,7 @@
       </c>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -3404,7 +3408,7 @@
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -3425,7 +3429,7 @@
       </c>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -3467,7 +3471,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -3488,7 +3492,7 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -3509,7 +3513,7 @@
       </c>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -3530,7 +3534,7 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="9">
         <v>100</v>
       </c>

--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5C48AA-26A4-4BD4-A805-B9414A824928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29567570-A816-4562-9491-67C4B7D7EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,18 +816,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[1], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4],condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,7 +832,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3,1], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5],condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2,3], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5]}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1370,10 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1463,7 +1463,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -2190,7 +2190,7 @@
         <v>35</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2213,7 +2213,7 @@
         <v>35</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2236,7 +2236,7 @@
         <v>35</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2259,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2282,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2305,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2328,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2351,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2374,7 +2374,7 @@
         <v>35</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2420,7 +2420,7 @@
         <v>35</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2443,7 +2443,7 @@
         <v>35</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2757,7 +2757,7 @@
         <v>224</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
@@ -3124,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3147,7 +3147,7 @@
         <v>10</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3170,7 +3170,7 @@
         <v>10</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3193,7 +3193,7 @@
         <v>10</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3216,7 +3216,7 @@
         <v>10</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">

--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29567570-A816-4562-9491-67C4B7D7EA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F72B5-3C01-4076-870A-6CDD83E1CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="30696" windowHeight="16656" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -756,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isAttacker:1, isRange:-1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,6 +841,10 @@
   </si>
   <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isAttacker:0, isRange:-1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,27 +1370,27 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1404,7 +1404,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1463,10 +1463,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="11">
         <v>2</v>
@@ -1507,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>7</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>9</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>18</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>21</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>22</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>23</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>24</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>25</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>26</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>27</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>28</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>29</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>30</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>31</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>32</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>33</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>34</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>35</v>
       </c>
@@ -2167,10 +2167,10 @@
         <v>35</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="17">
         <v>36</v>
       </c>
@@ -2190,10 +2190,10 @@
         <v>35</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="17">
         <v>37</v>
       </c>
@@ -2213,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="17">
         <v>38</v>
       </c>
@@ -2236,10 +2236,10 @@
         <v>35</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>39</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>35</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
         <v>40</v>
       </c>
@@ -2282,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <v>41</v>
       </c>
@@ -2305,10 +2305,10 @@
         <v>35</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17">
         <v>42</v>
       </c>
@@ -2328,10 +2328,10 @@
         <v>35</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>43</v>
       </c>
@@ -2351,10 +2351,10 @@
         <v>35</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
         <v>44</v>
       </c>
@@ -2374,10 +2374,10 @@
         <v>35</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <v>45</v>
       </c>
@@ -2397,10 +2397,10 @@
         <v>35</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
         <v>46</v>
       </c>
@@ -2420,10 +2420,10 @@
         <v>35</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <v>47</v>
       </c>
@@ -2443,10 +2443,10 @@
         <v>35</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
         <v>48</v>
       </c>
@@ -2466,10 +2466,10 @@
         <v>35</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
         <v>49</v>
       </c>
@@ -2489,10 +2489,10 @@
         <v>35</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="11">
         <v>50</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11">
         <v>53</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11">
         <v>54</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11">
         <v>55</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="11">
         <v>56</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11">
         <v>57</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
         <v>58</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11">
         <v>59</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11">
         <v>60</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="11">
         <v>61</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="17">
         <v>62</v>
       </c>
@@ -2754,13 +2754,13 @@
         <v>50</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="11">
         <v>63</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="11">
         <v>64</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="11">
         <v>65</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="11">
         <v>66</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="11">
         <v>67</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="11">
         <v>68</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="11">
         <v>69</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="11">
         <v>70</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="11">
         <v>71</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="11">
         <v>72</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="11">
         <v>73</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="11">
         <v>74</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="11">
         <v>75</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="17">
         <v>80</v>
       </c>
@@ -3124,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="17">
         <v>81</v>
       </c>
@@ -3147,10 +3147,10 @@
         <v>10</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="17">
         <v>82</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="17">
         <v>83</v>
       </c>
@@ -3193,10 +3193,10 @@
         <v>10</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="17">
         <v>84</v>
       </c>
@@ -3216,10 +3216,10 @@
         <v>10</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9">
         <v>100</v>
       </c>

--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F72B5-3C01-4076-870A-6CDD83E1CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6185D-7177-4729-9841-4C5CF38835B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="624" windowWidth="30696" windowHeight="16656" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="36" r:id="rId1"/>
@@ -816,18 +816,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:0, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:-1, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,7 +836,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isAttacker:0, isRange:-1}]</t>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:2, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:0, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isDefender:1, isRange:-1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,27 +1370,27 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H66" sqref="H66"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1404,7 +1404,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="11">
         <v>2</v>
@@ -1507,7 +1507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="11">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="11">
         <v>4</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="11">
         <v>5</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="11">
         <v>6</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="11">
         <v>7</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="11">
         <v>8</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="11">
         <v>9</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="11">
         <v>10</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="11">
         <v>11</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="11">
         <v>12</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="11">
         <v>13</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="11">
         <v>14</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="11">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="11">
         <v>16</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="11">
         <v>17</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="11">
         <v>18</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="11">
         <v>19</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="11">
         <v>20</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="11">
         <v>21</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="11">
         <v>22</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="11">
         <v>23</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="11">
         <v>24</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="11">
         <v>25</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="11">
         <v>26</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="11">
         <v>27</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B32" s="11">
         <v>28</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="11">
         <v>29</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="11">
         <v>30</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="11">
         <v>31</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B36" s="11">
         <v>32</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B37" s="11">
         <v>33</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B38" s="11">
         <v>34</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="17">
         <v>35</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="17">
         <v>36</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="17">
         <v>37</v>
       </c>
@@ -2213,10 +2213,10 @@
         <v>35</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="17">
         <v>38</v>
       </c>
@@ -2236,10 +2236,10 @@
         <v>35</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="17">
         <v>39</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>35</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="17">
         <v>40</v>
       </c>
@@ -2282,10 +2282,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="17">
         <v>41</v>
       </c>
@@ -2305,10 +2305,10 @@
         <v>35</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="17">
         <v>42</v>
       </c>
@@ -2328,10 +2328,10 @@
         <v>35</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="17">
         <v>43</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="17">
         <v>44</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="17">
         <v>45</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="17">
         <v>46</v>
       </c>
@@ -2420,10 +2420,10 @@
         <v>35</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="17">
         <v>47</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="17">
         <v>48</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="17">
         <v>49</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="11">
         <v>50</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9">
         <v>51</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H55" s="15"/>
     </row>
-    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9">
         <v>52</v>
       </c>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B57" s="11">
         <v>53</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B58" s="11">
         <v>54</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B59" s="11">
         <v>55</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B60" s="11">
         <v>56</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B61" s="11">
         <v>57</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="11">
         <v>58</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="11">
         <v>59</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="11">
         <v>60</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="11">
         <v>61</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B66" s="17">
         <v>62</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="11">
         <v>63</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="11">
         <v>64</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="11">
         <v>65</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="11">
         <v>66</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" s="11">
         <v>67</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="11">
         <v>68</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" s="11">
         <v>69</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" s="11">
         <v>70</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" s="11">
         <v>71</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="11">
         <v>72</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" s="11">
         <v>73</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" s="11">
         <v>74</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="11">
         <v>75</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="9">
         <v>76</v>
       </c>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="H80" s="15"/>
     </row>
-    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B81" s="9">
         <v>77</v>
       </c>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="H81" s="15"/>
     </row>
-    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="9">
         <v>78</v>
       </c>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="9">
         <v>79</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H83" s="15"/>
     </row>
-    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="17">
         <v>80</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="17">
         <v>81</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="17">
         <v>82</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="17">
         <v>83</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="17">
         <v>84</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="9">
         <v>85</v>
       </c>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="H89" s="15"/>
     </row>
-    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="9">
         <v>86</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="H90" s="15"/>
     </row>
-    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="9">
         <v>87</v>
       </c>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="H91" s="15"/>
     </row>
-    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="9">
         <v>88</v>
       </c>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B93" s="9">
         <v>89</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B94" s="9">
         <v>90</v>
       </c>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="H94" s="15"/>
     </row>
-    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B95" s="9">
         <v>91</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="H95" s="15"/>
     </row>
-    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="9">
         <v>92</v>
       </c>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="H96" s="15"/>
     </row>
-    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B97" s="9">
         <v>93</v>
       </c>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="H97" s="15"/>
     </row>
-    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B98" s="9">
         <v>94</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="H98" s="15"/>
     </row>
-    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B99" s="9">
         <v>95</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="H99" s="15"/>
     </row>
-    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="9">
         <v>96</v>
       </c>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H100" s="15"/>
     </row>
-    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="9">
         <v>97</v>
       </c>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="9">
         <v>98</v>
       </c>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="9">
         <v>99</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="9">
         <v>100</v>
       </c>

--- a/Data/Export/Common/Feature_武将特性.xlsx
+++ b/Data/Export/Common/Feature_武将特性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6185D-7177-4729-9841-4C5CF38835B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93AD65-CCA7-4E07-9D7A-EC11A5491106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,490 +361,491 @@
     <t>枪兵战法与戟兵战法施展成功时会心一击</t>
   </si>
   <si>
+    <t>枪兵战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>戟神</t>
+  </si>
+  <si>
+    <t>戟兵战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>弓神</t>
+  </si>
+  <si>
+    <t>弩兵战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>骑神</t>
+  </si>
+  <si>
+    <t>骑兵战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>工神</t>
+  </si>
+  <si>
+    <t>兵器战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>水神</t>
+  </si>
+  <si>
+    <t>水军战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>霸王</t>
+  </si>
+  <si>
+    <t>全战法成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>疾驰</t>
+  </si>
+  <si>
+    <t>对攻击力比自部队低的敌方部队施展骑兵战法成功时，必使其陷入混乱</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>可于森林使用弩兵战法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛者</t>
+  </si>
+  <si>
+    <t>以战法让敌方部队移动区格时，可让敌将负伤</t>
+  </si>
+  <si>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>同部队的武将不会战死、负伤</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展部队计略「火计」时必定会成功</t>
+  </si>
+  <si>
+    <t>言毒</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展部队计略「伪报」时，必定会成功</t>
+  </si>
+  <si>
+    <t>机智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展部队计略「扰乱」时，必定会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诡计</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展部队计略「内讧」时，必定会成功</t>
+  </si>
+  <si>
+    <t>虚实</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展全部队计略时，必定会成功</t>
+  </si>
+  <si>
+    <t>妙计</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展部队计略成功时会心一击</t>
+  </si>
+  <si>
+    <t>秘计</t>
+  </si>
+  <si>
+    <t>对智力比自己高的敌方部队施展部队计略成功时会心一击</t>
+  </si>
+  <si>
+    <t>看破</t>
+  </si>
+  <si>
+    <t>必定可识破智力比自己低的敌方部队所施展部队计略</t>
+  </si>
+  <si>
+    <t>洞察</t>
+  </si>
+  <si>
+    <t>火神</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展火计时必会成功；于全火攻有所优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神算</t>
+  </si>
+  <si>
+    <t>对智力比自己低的敌方部队施展计略必会成功；于全计略有所优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百出</t>
+  </si>
+  <si>
+    <t>部队计略的消费气力减少</t>
+  </si>
+  <si>
+    <t>鬼谋</t>
+  </si>
+  <si>
+    <t>增广２区格可施展部队计略的范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连环</t>
+  </si>
+  <si>
+    <t>部队计略成功时，与对象部队邻接的部队也会遭受计略波及</t>
+  </si>
+  <si>
+    <t>深谋</t>
+  </si>
+  <si>
+    <t>部队计略成功时施展会心一击</t>
+  </si>
+  <si>
+    <t>反计</t>
+  </si>
+  <si>
+    <t>若识破部队计略，就可对其施展同样的计略</t>
+  </si>
+  <si>
+    <t>奇谋</t>
+  </si>
+  <si>
+    <t>妖术</t>
+  </si>
+  <si>
+    <t>可施展部队计略的「妖术」</t>
+  </si>
+  <si>
+    <t>鬼门</t>
+  </si>
+  <si>
+    <t>可施展部队计略的「妖术、落雷」</t>
+  </si>
+  <si>
+    <t>规律</t>
+  </si>
+  <si>
+    <t>可防止遭受部队计略「伪报」</t>
+  </si>
+  <si>
+    <t>补助</t>
+  </si>
+  <si>
+    <t>沉着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可防止遭受部队计略「扰乱」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明镜</t>
+  </si>
+  <si>
+    <t>可防止遭受部队计略的「伪报、扰乱」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奏乐</t>
+  </si>
+  <si>
+    <t>每回合回复自军部队的气力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗想</t>
+  </si>
+  <si>
+    <t>军乐台的回复气力效果增为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筑城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事设施建设的耐久上升量增为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屯田</t>
+  </si>
+  <si>
+    <t>所属于关所、港口时，士兵不会消费兵粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名声</t>
+  </si>
+  <si>
+    <t>增加征兵时的士兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能吏</t>
+  </si>
+  <si>
+    <t>增加生产枪、戟、弩之兵装时的产量</t>
+  </si>
+  <si>
+    <t>繁殖</t>
+  </si>
+  <si>
+    <t>增加生产军马之兵装时的产量</t>
+  </si>
+  <si>
+    <t>生产兵器之兵装时所需的生产期间减半</t>
+  </si>
+  <si>
+    <t>造船</t>
+  </si>
+  <si>
+    <t>生产舰船之兵装时所需的生产期间减半</t>
+  </si>
+  <si>
+    <t>指导</t>
+  </si>
+  <si>
+    <t>研究技巧时的费用减半</t>
+  </si>
+  <si>
+    <t>眼力</t>
+  </si>
+  <si>
+    <t>若有未发现的在野人士时执行人材探索的话，必定会发现</t>
+  </si>
+  <si>
+    <t>论客</t>
+  </si>
+  <si>
+    <t>于同盟、停战协定、交换俘虏时容易进入舌战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富豪</t>
+  </si>
+  <si>
+    <t>每个月的所属都市的资金收入增为1.5倍</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>米道</t>
+  </si>
+  <si>
+    <t>每季的所属都市的兵粮收入增加为1.5倍</t>
+  </si>
+  <si>
+    <t>征税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合所属都市都会有资金收入（一次收入将减半）</t>
+  </si>
+  <si>
+    <t>征收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个月所属都市都会有兵粮的收入（一次的收入将减半）</t>
+  </si>
+  <si>
+    <t>亲乌</t>
+  </si>
+  <si>
+    <t>所属都市的领内不会出现异族「乌丸」的根据地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾害</t>
+  </si>
+  <si>
+    <t>亲羌</t>
+  </si>
+  <si>
+    <t>所属都市的领内不会出现异族「羌族」的根据地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲越</t>
+  </si>
+  <si>
+    <t>所属都市的领内不会出现异族「山越」的根据地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲蛮</t>
+  </si>
+  <si>
+    <t>所属都市的领内不会出现异族「南蛮」的根据地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威压</t>
+  </si>
+  <si>
+    <t>所属都市的领内不容易出现盗贼或异族的根据地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁政</t>
+  </si>
+  <si>
+    <t>所属相同的武将之每个月的忠诚不会下降</t>
+  </si>
+  <si>
+    <t>风水</t>
+  </si>
+  <si>
+    <t>所属都市不容易出现蝗灾、瘟疫</t>
+  </si>
+  <si>
+    <t>祈愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属都市容易出现丰收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内助</t>
+  </si>
+  <si>
+    <t>若结婚，双方的能力全部＋２</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对部队施展部队计略成功率增为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必定可识破敌方部队所施展的部队计略,反击伤害增加为２倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionEntities</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:150, jobIds:[6]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:200, jobIds:[8]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobResult", value:200, jobIds:[12]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[10]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[11]}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了反击伤害倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4], condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5],condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:2, condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:0, condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2,3], condition:{class:"andList",list:[{class:"TroopAttributeCompare",attType:"strength",result:1},{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>枪神</t>
-  </si>
-  <si>
-    <t>枪兵战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>戟神</t>
-  </si>
-  <si>
-    <t>戟兵战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>弓神</t>
-  </si>
-  <si>
-    <t>弩兵战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>骑神</t>
-  </si>
-  <si>
-    <t>骑兵战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>工神</t>
-  </si>
-  <si>
-    <t>兵器战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>水神</t>
-  </si>
-  <si>
-    <t>水军战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>霸王</t>
-  </si>
-  <si>
-    <t>全战法成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>疾驰</t>
-  </si>
-  <si>
-    <t>对攻击力比自部队低的敌方部队施展骑兵战法成功时，必使其陷入混乱</t>
-  </si>
-  <si>
-    <t>射手</t>
-  </si>
-  <si>
-    <t>可于森林使用弩兵战法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛者</t>
-  </si>
-  <si>
-    <t>以战法让敌方部队移动区格时，可让敌将负伤</t>
-  </si>
-  <si>
-    <t>护卫</t>
-  </si>
-  <si>
-    <t>同部队的武将不会战死、负伤</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展部队计略「火计」时必定会成功</t>
-  </si>
-  <si>
-    <t>言毒</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展部队计略「伪报」时，必定会成功</t>
-  </si>
-  <si>
-    <t>机智</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展部队计略「扰乱」时，必定会成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诡计</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展部队计略「内讧」时，必定会成功</t>
-  </si>
-  <si>
-    <t>虚实</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展全部队计略时，必定会成功</t>
-  </si>
-  <si>
-    <t>妙计</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展部队计略成功时会心一击</t>
-  </si>
-  <si>
-    <t>秘计</t>
-  </si>
-  <si>
-    <t>对智力比自己高的敌方部队施展部队计略成功时会心一击</t>
-  </si>
-  <si>
-    <t>看破</t>
-  </si>
-  <si>
-    <t>必定可识破智力比自己低的敌方部队所施展部队计略</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>火神</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展火计时必会成功；于全火攻有所优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神算</t>
-  </si>
-  <si>
-    <t>对智力比自己低的敌方部队施展计略必会成功；于全计略有所优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百出</t>
-  </si>
-  <si>
-    <t>部队计略的消费气力减少</t>
-  </si>
-  <si>
-    <t>鬼谋</t>
-  </si>
-  <si>
-    <t>增广２区格可施展部队计略的范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连环</t>
-  </si>
-  <si>
-    <t>部队计略成功时，与对象部队邻接的部队也会遭受计略波及</t>
-  </si>
-  <si>
-    <t>深谋</t>
-  </si>
-  <si>
-    <t>部队计略成功时施展会心一击</t>
-  </si>
-  <si>
-    <t>反计</t>
-  </si>
-  <si>
-    <t>若识破部队计略，就可对其施展同样的计略</t>
-  </si>
-  <si>
-    <t>奇谋</t>
-  </si>
-  <si>
-    <t>妖术</t>
-  </si>
-  <si>
-    <t>可施展部队计略的「妖术」</t>
-  </si>
-  <si>
-    <t>鬼门</t>
-  </si>
-  <si>
-    <t>可施展部队计略的「妖术、落雷」</t>
-  </si>
-  <si>
-    <t>规律</t>
-  </si>
-  <si>
-    <t>可防止遭受部队计略「伪报」</t>
-  </si>
-  <si>
-    <t>补助</t>
-  </si>
-  <si>
-    <t>沉着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可防止遭受部队计略「扰乱」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明镜</t>
-  </si>
-  <si>
-    <t>可防止遭受部队计略的「伪报、扰乱」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奏乐</t>
-  </si>
-  <si>
-    <t>每回合回复自军部队的气力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗想</t>
-  </si>
-  <si>
-    <t>军乐台的回复气力效果增为２倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筑城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事设施建设的耐久上升量增为２倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屯田</t>
-  </si>
-  <si>
-    <t>所属于关所、港口时，士兵不会消费兵粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名声</t>
-  </si>
-  <si>
-    <t>增加征兵时的士兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能吏</t>
-  </si>
-  <si>
-    <t>增加生产枪、戟、弩之兵装时的产量</t>
-  </si>
-  <si>
-    <t>繁殖</t>
-  </si>
-  <si>
-    <t>增加生产军马之兵装时的产量</t>
-  </si>
-  <si>
-    <t>生产兵器之兵装时所需的生产期间减半</t>
-  </si>
-  <si>
-    <t>造船</t>
-  </si>
-  <si>
-    <t>生产舰船之兵装时所需的生产期间减半</t>
-  </si>
-  <si>
-    <t>指导</t>
-  </si>
-  <si>
-    <t>研究技巧时的费用减半</t>
-  </si>
-  <si>
-    <t>眼力</t>
-  </si>
-  <si>
-    <t>若有未发现的在野人士时执行人材探索的话，必定会发现</t>
-  </si>
-  <si>
-    <t>论客</t>
-  </si>
-  <si>
-    <t>于同盟、停战协定、交换俘虏时容易进入舌战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富豪</t>
-  </si>
-  <si>
-    <t>每个月的所属都市的资金收入增为1.5倍</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>米道</t>
-  </si>
-  <si>
-    <t>每季的所属都市的兵粮收入增加为1.5倍</t>
-  </si>
-  <si>
-    <t>征税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合所属都市都会有资金收入（一次收入将减半）</t>
-  </si>
-  <si>
-    <t>征收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个月所属都市都会有兵粮的收入（一次的收入将减半）</t>
-  </si>
-  <si>
-    <t>亲乌</t>
-  </si>
-  <si>
-    <t>所属都市的领内不会出现异族「乌丸」的根据地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灾害</t>
-  </si>
-  <si>
-    <t>亲羌</t>
-  </si>
-  <si>
-    <t>所属都市的领内不会出现异族「羌族」的根据地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲越</t>
-  </si>
-  <si>
-    <t>所属都市的领内不会出现异族「山越」的根据地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲蛮</t>
-  </si>
-  <si>
-    <t>所属都市的领内不会出现异族「南蛮」的根据地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>威压</t>
-  </si>
-  <si>
-    <t>所属都市的领内不容易出现盗贼或异族的根据地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁政</t>
-  </si>
-  <si>
-    <t>所属相同的武将之每个月的忠诚不会下降</t>
-  </si>
-  <si>
-    <t>风水</t>
-  </si>
-  <si>
-    <t>所属都市不容易出现蝗灾、瘟疫</t>
-  </si>
-  <si>
-    <t>祈愿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属都市容易出现丰收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内助</t>
-  </si>
-  <si>
-    <t>若结婚，双方的能力全部＋２</t>
-  </si>
-  <si>
-    <t>关系</t>
-  </si>
-  <si>
-    <t>u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对部队施展部队计略成功率增为２倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必定可识破敌方部队所施展的部队计略,反击伤害增加为２倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionEntities</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[11,12,13,14]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"CityImproveJobResult", value:150, jobIds:[6]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"CityImproveJobResult", value:200, jobIds:[8]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"CityImproveJobResult", value:200, jobIds:[12]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[10]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"CityImproveJobCounterResult", value:50, jobIds:[11]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加了反击伤害倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aobj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100,condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5],condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2,3], condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, isNormal:2, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateCritical", value:100, isNormal:0, condition:{class:"and",L:{class:"TroopAttributeCompare",attType:"strength",result:1},R:{class:"SkillIsNormalSkill", result:0}}}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isDefender:1, isRange:-1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[2], condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[3], condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[4], condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[5], condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[11,12,13,14], condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, kinds:[8,9,10], checkLand:2, condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateCritical", value:100, condition:{class:"andList",list:[{class:"SkillIsNormalSkill", result:0},{class:"SkillIsStrategySkill", result:0} ] }}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"TroopSkillCalculateAttackBack", value:200, isDefender:1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,10 +1371,10 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,7 +1386,7 @@
     <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="254.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
@@ -1437,7 +1438,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1454,16 +1455,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -2167,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2190,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2213,7 +2214,7 @@
         <v>35</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2236,7 +2237,7 @@
         <v>35</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2259,7 +2260,7 @@
         <v>35</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2282,7 +2283,7 @@
         <v>35</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2305,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2328,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2336,10 +2337,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="E47" s="17">
         <v>3</v>
@@ -2351,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2359,10 +2360,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>105</v>
       </c>
       <c r="E48" s="17">
         <v>3</v>
@@ -2374,7 +2375,7 @@
         <v>35</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2382,10 +2383,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>107</v>
       </c>
       <c r="E49" s="17">
         <v>3</v>
@@ -2397,7 +2398,7 @@
         <v>35</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2405,10 +2406,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>109</v>
       </c>
       <c r="E50" s="17">
         <v>3</v>
@@ -2420,7 +2421,7 @@
         <v>35</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2428,10 +2429,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="E51" s="17">
         <v>3</v>
@@ -2443,7 +2444,7 @@
         <v>35</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2451,10 +2452,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="E52" s="17">
         <v>3</v>
@@ -2466,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -2474,10 +2475,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>115</v>
       </c>
       <c r="E53" s="17">
         <v>4</v>
@@ -2489,7 +2490,7 @@
         <v>35</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2497,10 +2498,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="E54" s="11">
         <v>3</v>
@@ -2517,10 +2518,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E55" s="9">
         <v>2</v>
@@ -2538,10 +2539,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="E56" s="9">
         <v>2</v>
@@ -2559,10 +2560,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="E57" s="11">
         <v>2</v>
@@ -2582,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E58" s="11">
         <v>3</v>
@@ -2599,10 +2600,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="E59" s="11">
         <v>3</v>
@@ -2619,10 +2620,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="E60" s="11">
         <v>3</v>
@@ -2639,10 +2640,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="E61" s="11">
         <v>3</v>
@@ -2659,10 +2660,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="E62" s="11">
         <v>4</v>
@@ -2679,10 +2680,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="E63" s="11">
         <v>2</v>
@@ -2699,10 +2700,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="E64" s="11">
         <v>2</v>
@@ -2719,10 +2720,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="E65" s="11">
         <v>3</v>
@@ -2739,10 +2740,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -2757,7 +2758,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.15">
@@ -2765,10 +2766,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="E67" s="11">
         <v>4</v>
@@ -2785,10 +2786,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E68" s="11">
         <v>4</v>
@@ -2805,10 +2806,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="E69" s="11">
         <v>4</v>
@@ -2825,10 +2826,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>147</v>
       </c>
       <c r="E70" s="11">
         <v>3</v>
@@ -2845,10 +2846,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="E71" s="11">
         <v>3</v>
@@ -2865,10 +2866,10 @@
         <v>68</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="E72" s="11">
         <v>3</v>
@@ -2885,10 +2886,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E73" s="11">
         <v>3</v>
@@ -2905,10 +2906,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74" s="11">
         <v>3</v>
@@ -2925,10 +2926,10 @@
         <v>71</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E75" s="11">
         <v>3</v>
@@ -2945,10 +2946,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E76" s="11">
         <v>4</v>
@@ -2965,10 +2966,10 @@
         <v>73</v>
       </c>
       <c r="C77" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="E77" s="11">
         <v>2</v>
@@ -2977,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
@@ -2985,10 +2986,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="E78" s="11">
         <v>2</v>
@@ -2997,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.15">
@@ -3005,10 +3006,10 @@
         <v>75</v>
       </c>
       <c r="C79" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="E79" s="11">
         <v>3</v>
@@ -3017,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -3025,10 +3026,10 @@
         <v>76</v>
       </c>
       <c r="C80" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>166</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>167</v>
       </c>
       <c r="E80" s="9">
         <v>3</v>
@@ -3037,7 +3038,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H80" s="15"/>
     </row>
@@ -3046,10 +3047,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="E81" s="9">
         <v>2</v>
@@ -3058,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H81" s="15"/>
     </row>
@@ -3067,10 +3068,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="E82" s="9">
         <v>2</v>
@@ -3079,7 +3080,7 @@
         <v>5</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H82" s="15"/>
     </row>
@@ -3088,10 +3089,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="E83" s="9">
         <v>2</v>
@@ -3100,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H83" s="15"/>
     </row>
@@ -3109,22 +3110,22 @@
         <v>80</v>
       </c>
       <c r="C84" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="17" t="s">
-        <v>175</v>
-      </c>
       <c r="E84" s="17">
         <v>2</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G84" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3132,22 +3133,22 @@
         <v>81</v>
       </c>
       <c r="C85" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>177</v>
-      </c>
       <c r="E85" s="17">
         <v>2</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G85" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3155,22 +3156,22 @@
         <v>82</v>
       </c>
       <c r="C86" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>179</v>
-      </c>
       <c r="E86" s="17">
         <v>2</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3181,19 +3182,19 @@
         <v>8</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E87" s="17">
         <v>2</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
@@ -3201,22 +3202,22 @@
         <v>84</v>
       </c>
       <c r="C88" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>182</v>
-      </c>
       <c r="E88" s="17">
         <v>2</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G88" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -3224,16 +3225,16 @@
         <v>85</v>
       </c>
       <c r="C89" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="E89" s="9">
         <v>2</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>10</v>
@@ -3245,10 +3246,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>185</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="E90" s="9">
         <v>2</v>
@@ -3266,10 +3267,10 @@
         <v>87</v>
       </c>
       <c r="C91" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="E91" s="9">
         <v>2</v>
@@ -3287,10 +3288,10 @@
         <v>88</v>
       </c>
       <c r="C92" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="E92" s="9">
         <v>3</v>
@@ -3299,7 +3300,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -3308,10 +3309,10 @@
         <v>89</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>193</v>
       </c>
       <c r="E93" s="9">
         <v>3</v>
@@ -3320,7 +3321,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -3329,10 +3330,10 @@
         <v>90</v>
       </c>
       <c r="C94" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="E94" s="9">
         <v>3</v>
@@ -3341,7 +3342,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H94" s="15"/>
     </row>
@@ -3350,10 +3351,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>197</v>
       </c>
       <c r="E95" s="9">
         <v>3</v>
@@ -3362,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H95" s="15"/>
     </row>
@@ -3371,10 +3372,10 @@
         <v>92</v>
       </c>
       <c r="C96" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="E96" s="9">
         <v>2</v>
@@ -3383,7 +3384,7 @@
         <v>8</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H96" s="15"/>
     </row>
@@ -3392,10 +3393,10 @@
         <v>93</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="E97" s="9">
         <v>2</v>
@@ -3404,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H97" s="15"/>
     </row>
@@ -3413,10 +3414,10 @@
         <v>94</v>
       </c>
       <c r="C98" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="E98" s="9">
         <v>2</v>
@@ -3425,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H98" s="15"/>
     </row>
@@ -3434,10 +3435,10 @@
         <v>95</v>
       </c>
       <c r="C99" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="E99" s="9">
         <v>2</v>
@@ -3446,7 +3447,7 @@
         <v>8</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H99" s="15"/>
     </row>
@@ -3455,10 +3456,10 @@
         <v>96</v>
       </c>
       <c r="C100" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>208</v>
       </c>
       <c r="E100" s="9">
         <v>2</v>
@@ -3467,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H100" s="15"/>
     </row>
@@ -3476,10 +3477,10 @@
         <v>97</v>
       </c>
       <c r="C101" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="E101" s="9">
         <v>2</v>
@@ -3488,7 +3489,7 @@
         <v>8</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H101" s="15"/>
     </row>
@@ -3497,10 +3498,10 @@
         <v>98</v>
       </c>
       <c r="C102" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="E102" s="9">
         <v>2</v>
@@ -3509,7 +3510,7 @@
         <v>8</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H102" s="15"/>
     </row>
@@ -3518,10 +3519,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="E103" s="9">
         <v>2</v>
@@ -3530,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H103" s="15"/>
     </row>
@@ -3539,10 +3540,10 @@
         <v>100</v>
       </c>
       <c r="C104" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="E104" s="9">
         <v>2</v>
@@ -3551,7 +3552,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H104" s="15"/>
     </row>
